--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAURICIO\mauricio\migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAURICIO\mauricio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB900DE-DAC2-451A-BC6E-259B62DD64C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0F547-7C97-4BB7-A724-AD130C3805DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,22 +25,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>teste 1</t>
-  </si>
-  <si>
-    <t>teste 2</t>
-  </si>
-  <si>
-    <t>teste 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+  <si>
+    <t>DATA_EMISSAO</t>
+  </si>
+  <si>
+    <t>DATA_VENCIMENTO</t>
+  </si>
+  <si>
+    <t>DATA_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>IDPESSOA</t>
+  </si>
+  <si>
+    <t>NRO_PARCELA</t>
+  </si>
+  <si>
+    <t>VALOR_JUROS</t>
+  </si>
+  <si>
+    <t>VALOR_MULTA</t>
+  </si>
+  <si>
+    <t>VALOR_DESCONTO</t>
+  </si>
+  <si>
+    <t>VALOR_TOTAL</t>
+  </si>
+  <si>
+    <t>VALOR_CONTA</t>
+  </si>
+  <si>
+    <t>HISTORICO</t>
+  </si>
+  <si>
+    <t>IDSTATUS</t>
+  </si>
+  <si>
+    <t>VALOR_PAGO</t>
+  </si>
+  <si>
+    <t>NUM_DOC</t>
+  </si>
+  <si>
+    <t>'115'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 149806'</t>
+  </si>
+  <si>
+    <t>'137'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 150161'</t>
+  </si>
+  <si>
+    <t>'97'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV:'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 151162'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 151326'</t>
+  </si>
+  <si>
+    <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 151355'</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>72.48</t>
+  </si>
+  <si>
+    <t>37.47</t>
+  </si>
+  <si>
+    <t>35.95</t>
+  </si>
+  <si>
+    <t>51.92</t>
+  </si>
+  <si>
+    <t>36.71</t>
+  </si>
+  <si>
+    <t>17.38</t>
+  </si>
+  <si>
+    <t>63.39</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>26.79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +144,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +181,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,23 +527,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>44334</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44364</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44337</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44367</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44338</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44338</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>44338</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44338</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>44338</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44338</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>SUM(51.92+36.19)</f>
+        <v>88.11</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>44338</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44338</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44377</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>44349</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44379</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44748</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAURICIO\mauricio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0F547-7C97-4BB7-A724-AD130C3805DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559B94F-9B32-4640-A8BE-6A04B9A1E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>DATA_EMISSAO</t>
   </si>
@@ -69,21 +69,12 @@
     <t>NUM_DOC</t>
   </si>
   <si>
-    <t>'115'</t>
-  </si>
-  <si>
     <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 149806'</t>
   </si>
   <si>
-    <t>'137'</t>
-  </si>
-  <si>
     <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV: 150161'</t>
   </si>
   <si>
-    <t>'97'</t>
-  </si>
-  <si>
     <t>'Venda c/ Cupom Fiscal - Cx Terminal 001  NrV:'</t>
   </si>
   <si>
@@ -127,6 +118,42 @@
   </si>
   <si>
     <t>26.79</t>
+  </si>
+  <si>
+    <t>'2021-05-18'</t>
+  </si>
+  <si>
+    <t>'2021-05-21'</t>
+  </si>
+  <si>
+    <t>'2021-05-22'</t>
+  </si>
+  <si>
+    <t>'2021-05-31'</t>
+  </si>
+  <si>
+    <t>'2021-06-01'</t>
+  </si>
+  <si>
+    <t>'2021-06-02'</t>
+  </si>
+  <si>
+    <t>'2021-06-17'</t>
+  </si>
+  <si>
+    <t>'2021-06-20'</t>
+  </si>
+  <si>
+    <t>'2021-06-30'</t>
+  </si>
+  <si>
+    <t>'2021-07-01'</t>
+  </si>
+  <si>
+    <t>'2021-07-02'</t>
+  </si>
+  <si>
+    <t>'2022-07-06'</t>
   </si>
 </sst>
 </file>
@@ -136,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +179,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +196,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,17 +233,14 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +553,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,399 +616,399 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>44334</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44364</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>44337</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44367</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>44338</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44338</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>44338</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44338</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>44338</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44338</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <f>SUM(51.92+36.19)</f>
         <v>88.11</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="J6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>44338</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44338</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>44347</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44377</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>44349</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44379</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44748</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>9</v>
       </c>
     </row>
